--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE_outliers.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE_outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C0BCFBF-A7C4-42E3-865A-E17969DC4FA0}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08BDE1F-8981-4D30-B2FE-7A39BDACEAF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -35,65 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Felipe Faleco</author>
-  </authors>
-  <commentList>
-    <comment ref="A59" authorId="0" shapeId="0" xr:uid="{214F20C4-6F18-4979-BF8A-417D8CBC6F35}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Felipe Faleco:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Outlier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A62" authorId="0" shapeId="0" xr:uid="{E868626F-B6B1-40CC-BA3B-1100A0374695}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Felipe Faleco:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Outlier
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,19 +140,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}">
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,24 +1330,12 @@
       <c r="G20" s="2">
         <v>3</v>
       </c>
-      <c r="H20" s="2">
-        <v>7</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.16383112791430374</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.81333333333333324</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.83616887208569624</v>
-      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1976,24 +1892,12 @@
       <c r="G34" s="2">
         <v>1</v>
       </c>
-      <c r="H34" s="2">
-        <v>6</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.153</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="K34" s="4">
-        <v>7.7126654064272215E-2</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.92287334593572778</v>
-      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2509,24 +2413,12 @@
       <c r="G47" s="2">
         <v>2</v>
       </c>
-      <c r="H47" s="2">
-        <v>2</v>
-      </c>
-      <c r="I47" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -2550,24 +2442,12 @@
       <c r="G48" s="2">
         <v>3</v>
       </c>
-      <c r="H48" s="2">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -2796,24 +2676,12 @@
       <c r="G54" s="2">
         <v>2</v>
       </c>
-      <c r="H54" s="2">
-        <v>13</v>
-      </c>
-      <c r="I54" s="2">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0.26037735849056604</v>
-      </c>
-      <c r="L54" s="4">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0.73962264150943402</v>
-      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -4248,24 +4116,12 @@
       <c r="G90" s="2">
         <v>2</v>
       </c>
-      <c r="H90" s="2">
-        <v>1</v>
-      </c>
-      <c r="I90" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J90" s="4">
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="K90" s="4">
-        <v>5.7736720554272516E-4</v>
-      </c>
-      <c r="L90" s="4">
-        <v>0.96551724137931028</v>
-      </c>
-      <c r="M90" s="4">
-        <v>0.99942263279445731</v>
-      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -4289,24 +4145,12 @@
       <c r="G91" s="2">
         <v>3</v>
       </c>
-      <c r="H91" s="2">
-        <v>1</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J91" s="4">
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="K91" s="4">
-        <v>5.7736720554272516E-4</v>
-      </c>
-      <c r="L91" s="4">
-        <v>0.96551724137931028</v>
-      </c>
-      <c r="M91" s="4">
-        <v>0.99942263279445731</v>
-      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -5513,24 +5357,12 @@
       <c r="G121" s="2">
         <v>1</v>
       </c>
-      <c r="H121" s="2">
-        <v>7</v>
-      </c>
-      <c r="I121" s="2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J121" s="4">
-        <v>1</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1</v>
-      </c>
-      <c r="L121" s="4">
-        <v>0</v>
-      </c>
-      <c r="M121" s="4">
-        <v>0</v>
-      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -6561,6 +6393,5 @@
   <autoFilter ref="A1:M146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>